--- a/Zeszyt1.xlsx
+++ b/Zeszyt1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s-A121-15.CAMPUS.008\Desktop\Teoretyczne-podstawy-informatyki\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s-A121-18.CAMPUS.011\Desktop\Teoretyczne-podstawy-informatyki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D13518-16D6-4BA5-B770-20BFB1E00505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A2A0585-514A-4AE3-AE38-AA463B827281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12585" yWindow="0" windowWidth="16215" windowHeight="15600" xr2:uid="{93483F0B-0856-4EB5-9A14-F14C0948BE5F}"/>
+    <workbookView xWindow="7200" yWindow="1770" windowWidth="21600" windowHeight="11385" xr2:uid="{93483F0B-0856-4EB5-9A14-F14C0948BE5F}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="79">
   <si>
     <t>x</t>
   </si>
@@ -235,6 +235,42 @@
   </si>
   <si>
     <t>z^v</t>
+  </si>
+  <si>
+    <t>x*2</t>
+  </si>
+  <si>
+    <t>y*4</t>
+  </si>
+  <si>
+    <t>z*8</t>
+  </si>
+  <si>
+    <t>x/4</t>
+  </si>
+  <si>
+    <t>y/16</t>
+  </si>
+  <si>
+    <t>z/8</t>
+  </si>
+  <si>
+    <t>x&lt;&lt;1</t>
+  </si>
+  <si>
+    <t>y&lt;&lt;2</t>
+  </si>
+  <si>
+    <t>z&lt;&lt;3</t>
+  </si>
+  <si>
+    <t>x&gt;&gt;2</t>
+  </si>
+  <si>
+    <t>y&gt;&gt;4</t>
+  </si>
+  <si>
+    <t>z&gt;&gt;3</t>
   </si>
 </sst>
 </file>
@@ -507,7 +543,37 @@
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -838,17 +904,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{507260A7-8F95-47B7-9E09-F8293D5F4E32}">
-  <dimension ref="A1:N67"/>
+  <dimension ref="A1:AF67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="K53" sqref="K53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" customWidth="1"/>
+    <col min="3" max="3" width="2.85546875" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" customWidth="1"/>
+    <col min="5" max="5" width="3.85546875" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" customWidth="1"/>
+    <col min="7" max="8" width="3.28515625" customWidth="1"/>
+    <col min="9" max="9" width="2.5703125" customWidth="1"/>
+    <col min="11" max="12" width="9.140625" customWidth="1"/>
+    <col min="13" max="13" width="8.7109375" customWidth="1"/>
     <col min="14" max="14" width="26.85546875" customWidth="1"/>
+    <col min="15" max="30" width="2.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1428,11 +1503,14 @@
         <v>0</v>
       </c>
       <c r="H30" s="4">
-        <f t="shared" ref="C30:I30" si="7">IF(NOT(H2),1,0)</f>
+        <f t="shared" ref="H30" si="7">IF(NOT(H2),1,0)</f>
         <v>0</v>
       </c>
       <c r="I30" s="5">
         <v>0</v>
+      </c>
+      <c r="J30" t="s">
+        <v>54</v>
       </c>
       <c r="K30" s="1" t="s">
         <v>32</v>
@@ -1452,7 +1530,7 @@
         <v>23</v>
       </c>
       <c r="B31" s="1">
-        <f t="shared" ref="B31:I31" si="8">IF(NOT(B3),1,0)</f>
+        <f t="shared" ref="B31" si="8">IF(NOT(B3),1,0)</f>
         <v>0</v>
       </c>
       <c r="C31" s="1">
@@ -1475,6 +1553,9 @@
       </c>
       <c r="I31" s="7">
         <v>0</v>
+      </c>
+      <c r="J31" t="s">
+        <v>54</v>
       </c>
       <c r="K31" s="1" t="s">
         <v>33</v>
@@ -1494,7 +1575,7 @@
         <v>24</v>
       </c>
       <c r="B32" s="1">
-        <f t="shared" ref="B32:I32" si="9">IF(NOT(B4),1,0)</f>
+        <f t="shared" ref="B32:H32" si="9">IF(NOT(B4),1,0)</f>
         <v>0</v>
       </c>
       <c r="C32" s="1">
@@ -1518,6 +1599,9 @@
       </c>
       <c r="I32" s="7">
         <v>0</v>
+      </c>
+      <c r="J32" t="s">
+        <v>54</v>
       </c>
       <c r="K32" s="1" t="s">
         <v>34</v>
@@ -1560,6 +1644,9 @@
       <c r="I33" s="10">
         <v>1</v>
       </c>
+      <c r="J33" t="s">
+        <v>53</v>
+      </c>
       <c r="K33" s="1" t="s">
         <v>35</v>
       </c>
@@ -2076,7 +2163,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="8" t="s">
         <v>15</v>
       </c>
@@ -2108,7 +2195,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>55</v>
       </c>
@@ -2137,7 +2224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>56</v>
       </c>
@@ -2166,7 +2253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>57</v>
       </c>
@@ -2195,7 +2282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>58</v>
       </c>
@@ -2224,7 +2311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>59</v>
       </c>
@@ -2253,7 +2340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="8" t="s">
         <v>60</v>
       </c>
@@ -2282,7 +2369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>16</v>
       </c>
@@ -2311,7 +2398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>17</v>
       </c>
@@ -2340,7 +2427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>18</v>
       </c>
@@ -2369,7 +2456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>19</v>
       </c>
@@ -2398,7 +2485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>20</v>
       </c>
@@ -2427,7 +2514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="8" t="s">
         <v>21</v>
       </c>
@@ -2456,7 +2543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>61</v>
       </c>
@@ -2484,8 +2571,62 @@
       <c r="I62" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K62" t="s">
+        <v>67</v>
+      </c>
+      <c r="L62" t="s">
+        <v>73</v>
+      </c>
+      <c r="M62" s="1">
+        <v>0</v>
+      </c>
+      <c r="N62" s="1">
+        <v>0</v>
+      </c>
+      <c r="O62" s="1">
+        <v>0</v>
+      </c>
+      <c r="P62" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="1">
+        <v>0</v>
+      </c>
+      <c r="R62" s="1">
+        <v>0</v>
+      </c>
+      <c r="S62" s="1">
+        <v>0</v>
+      </c>
+      <c r="T62" s="1">
+        <v>1</v>
+      </c>
+      <c r="U62" s="1">
+        <v>0</v>
+      </c>
+      <c r="V62" s="1">
+        <v>1</v>
+      </c>
+      <c r="W62" s="1">
+        <v>1</v>
+      </c>
+      <c r="X62" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z62" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB62" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>62</v>
       </c>
@@ -2513,8 +2654,62 @@
       <c r="I63" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K63" t="s">
+        <v>68</v>
+      </c>
+      <c r="L63" t="s">
+        <v>74</v>
+      </c>
+      <c r="M63" s="1">
+        <v>0</v>
+      </c>
+      <c r="N63" s="1">
+        <v>0</v>
+      </c>
+      <c r="O63" s="1">
+        <v>0</v>
+      </c>
+      <c r="P63" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="1">
+        <v>0</v>
+      </c>
+      <c r="R63" s="1">
+        <v>0</v>
+      </c>
+      <c r="S63" s="1">
+        <v>1</v>
+      </c>
+      <c r="T63" s="1">
+        <v>1</v>
+      </c>
+      <c r="U63" s="1">
+        <v>0</v>
+      </c>
+      <c r="V63" s="1">
+        <v>0</v>
+      </c>
+      <c r="W63" s="1">
+        <v>1</v>
+      </c>
+      <c r="X63" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB63" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
         <v>63</v>
       </c>
@@ -2542,8 +2737,62 @@
       <c r="I64" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K64" t="s">
+        <v>69</v>
+      </c>
+      <c r="L64" t="s">
+        <v>75</v>
+      </c>
+      <c r="M64" s="1">
+        <v>0</v>
+      </c>
+      <c r="N64" s="1">
+        <v>0</v>
+      </c>
+      <c r="O64" s="1">
+        <v>0</v>
+      </c>
+      <c r="P64" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="1">
+        <v>0</v>
+      </c>
+      <c r="R64" s="1">
+        <v>0</v>
+      </c>
+      <c r="S64" s="1">
+        <v>0</v>
+      </c>
+      <c r="T64" s="1">
+        <v>1</v>
+      </c>
+      <c r="U64" s="1">
+        <v>0</v>
+      </c>
+      <c r="V64" s="1">
+        <v>1</v>
+      </c>
+      <c r="W64" s="1">
+        <v>1</v>
+      </c>
+      <c r="X64" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y64" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB64" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
         <v>64</v>
       </c>
@@ -2571,8 +2820,68 @@
       <c r="I65" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K65" t="s">
+        <v>70</v>
+      </c>
+      <c r="L65" t="s">
+        <v>76</v>
+      </c>
+      <c r="M65" s="1">
+        <v>0</v>
+      </c>
+      <c r="N65" s="1">
+        <v>0</v>
+      </c>
+      <c r="O65" s="1">
+        <v>0</v>
+      </c>
+      <c r="P65" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="1">
+        <v>0</v>
+      </c>
+      <c r="R65" s="1">
+        <v>0</v>
+      </c>
+      <c r="S65" s="1">
+        <v>0</v>
+      </c>
+      <c r="T65" s="1">
+        <v>0</v>
+      </c>
+      <c r="U65" s="1">
+        <v>0</v>
+      </c>
+      <c r="V65" s="1">
+        <v>0</v>
+      </c>
+      <c r="W65" s="1">
+        <v>1</v>
+      </c>
+      <c r="X65" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z65" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC65">
+        <v>1</v>
+      </c>
+      <c r="AD65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
         <v>65</v>
       </c>
@@ -2600,8 +2909,74 @@
       <c r="I66" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K66" t="s">
+        <v>71</v>
+      </c>
+      <c r="L66" t="s">
+        <v>77</v>
+      </c>
+      <c r="M66" s="1">
+        <v>0</v>
+      </c>
+      <c r="N66" s="1">
+        <v>0</v>
+      </c>
+      <c r="O66" s="1">
+        <v>0</v>
+      </c>
+      <c r="P66" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="1">
+        <v>0</v>
+      </c>
+      <c r="R66" s="1">
+        <v>0</v>
+      </c>
+      <c r="S66" s="1">
+        <v>0</v>
+      </c>
+      <c r="T66" s="1">
+        <v>0</v>
+      </c>
+      <c r="U66" s="1">
+        <v>0</v>
+      </c>
+      <c r="V66" s="1">
+        <v>0</v>
+      </c>
+      <c r="W66" s="1">
+        <v>0</v>
+      </c>
+      <c r="X66" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y66" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z66" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC66">
+        <v>1</v>
+      </c>
+      <c r="AD66">
+        <v>0</v>
+      </c>
+      <c r="AE66">
+        <v>0</v>
+      </c>
+      <c r="AF66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="8" t="s">
         <v>66</v>
       </c>
@@ -2629,15 +3004,93 @@
       <c r="I67" s="10">
         <v>0</v>
       </c>
+      <c r="K67" t="s">
+        <v>72</v>
+      </c>
+      <c r="L67" t="s">
+        <v>78</v>
+      </c>
+      <c r="M67" s="1">
+        <v>0</v>
+      </c>
+      <c r="N67" s="1">
+        <v>0</v>
+      </c>
+      <c r="O67" s="1">
+        <v>0</v>
+      </c>
+      <c r="P67" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="1">
+        <v>0</v>
+      </c>
+      <c r="R67" s="1">
+        <v>0</v>
+      </c>
+      <c r="S67" s="1">
+        <v>0</v>
+      </c>
+      <c r="T67" s="1">
+        <v>0</v>
+      </c>
+      <c r="U67" s="1">
+        <v>0</v>
+      </c>
+      <c r="V67" s="1">
+        <v>0</v>
+      </c>
+      <c r="W67" s="1">
+        <v>0</v>
+      </c>
+      <c r="X67" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y67" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z67" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB67" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC67">
+        <v>1</v>
+      </c>
+      <c r="AD67">
+        <v>1</v>
+      </c>
+      <c r="AE67">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A26:I61">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+  <conditionalFormatting sqref="A26:I67">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A62:I67">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="M65:T65">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M62:AB64 AC65:AD65 U65:AB67">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M67:AE67">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M66:AF66">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
